--- a/Formato Recibo/formato_recibo.xlsx
+++ b/Formato Recibo/formato_recibo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Dev\Sistema-Admin-2.0\Formato recibo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Dev\Sistema-Admin-2.0.2 - copia\Formato Recibo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B2C18-EE53-4340-8EBF-4CE3BB9AD432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D732727-16B4-43DF-B9FD-93E7EB8E192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TICKET" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,22 +253,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -303,20 +292,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -347,87 +322,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +765,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -806,268 +779,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="9.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="9.75" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="27">
+      <c r="B5" s="36"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="22">
         <f ca="1">+TODAY()</f>
-        <v>45972</v>
+        <v>46028</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="28">
+      <c r="B6" s="36"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="23">
         <f ca="1">NOW()</f>
-        <v>45972.661739351854</v>
+        <v>46028.560821412037</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="10.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="5.25" hidden="1" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="12" customHeight="1">
+    <row r="10" spans="1:8" ht="23.25" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="10"/>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="12" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="14"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="16">
-        <f>SUM(E9:E12)</f>
+      <c r="E14" s="12">
+        <f>SUM(E9:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="10.5" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <f>SUM(E14:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="9.75" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="23"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="7.5" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="24"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="7.5" customHeight="1">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="24"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="10.5" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="28">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A24:E24"/>
@@ -1083,19 +1068,7 @@
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="176" scale="94" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
